--- a/data/DataOfBGMAndVedio.xlsx
+++ b/data/DataOfBGMAndVedio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAX\Desktop\数据科学基础\抖音数据分析\BGM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echo\Desktop\数据科学基础\大作业\BGM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446CAAA4-5268-4C49-A226-8E50ACFA0805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0447955F-60A7-4603-9676-A693567E6821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{A80C75DB-A855-4043-8691-E31DA03F0C30}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A80C75DB-A855-4043-8691-E31DA03F0C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Video" sheetId="2" r:id="rId1"/>
@@ -3680,17 +3680,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC52F356-94DD-43B9-9C07-E00B3F2F58A1}">
   <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F302" sqref="F302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="31.44921875" customWidth="1"/>
-    <col min="3" max="3" width="10.546875" customWidth="1"/>
+    <col min="2" max="2" width="31.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>265</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>268</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12382,22 +12382,25 @@
         <v>9186</v>
       </c>
       <c r="F272">
+        <v>1817</v>
+      </c>
+      <c r="G272">
         <v>10</v>
       </c>
-      <c r="G272" t="s">
+      <c r="H272" t="s">
         <v>41</v>
       </c>
-      <c r="H272" t="s">
+      <c r="I272" t="s">
         <v>31</v>
       </c>
-      <c r="I272" t="s">
+      <c r="J272" t="s">
         <v>589</v>
       </c>
-      <c r="J272" t="s">
+      <c r="K272" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>272</v>
       </c>
@@ -12414,19 +12417,22 @@
         <v>94000</v>
       </c>
       <c r="F273">
+        <v>21000</v>
+      </c>
+      <c r="G273">
         <v>10</v>
       </c>
-      <c r="G273" t="s">
+      <c r="H273" t="s">
         <v>33</v>
       </c>
-      <c r="H273" t="s">
+      <c r="I273" t="s">
         <v>821</v>
       </c>
-      <c r="I273" t="s">
+      <c r="J273" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
@@ -12443,16 +12449,19 @@
         <v>14000</v>
       </c>
       <c r="F274">
+        <v>3103</v>
+      </c>
+      <c r="G274">
         <v>10</v>
       </c>
-      <c r="G274" t="s">
+      <c r="H274" t="s">
         <v>825</v>
       </c>
-      <c r="H274" t="s">
+      <c r="I274" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>274</v>
       </c>
@@ -12469,19 +12478,22 @@
         <v>14000</v>
       </c>
       <c r="F275">
+        <v>2125</v>
+      </c>
+      <c r="G275">
         <v>10</v>
       </c>
-      <c r="G275" t="s">
+      <c r="H275" t="s">
         <v>827</v>
       </c>
-      <c r="H275" t="s">
+      <c r="I275" t="s">
         <v>41</v>
       </c>
-      <c r="I275" t="s">
+      <c r="J275" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>275</v>
       </c>
@@ -12498,19 +12510,22 @@
         <v>1578</v>
       </c>
       <c r="F276">
+        <v>407</v>
+      </c>
+      <c r="G276">
         <v>10</v>
       </c>
-      <c r="G276" t="s">
+      <c r="H276" t="s">
         <v>827</v>
       </c>
-      <c r="H276" t="s">
+      <c r="I276" t="s">
         <v>31</v>
       </c>
-      <c r="I276" t="s">
+      <c r="J276" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
@@ -12527,19 +12542,22 @@
         <v>3084</v>
       </c>
       <c r="F277">
+        <v>1052</v>
+      </c>
+      <c r="G277">
         <v>10</v>
       </c>
-      <c r="G277" t="s">
+      <c r="H277" t="s">
         <v>831</v>
       </c>
-      <c r="H277" t="s">
+      <c r="I277" t="s">
         <v>832</v>
       </c>
-      <c r="I277" t="s">
+      <c r="J277" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>277</v>
       </c>
@@ -12556,16 +12574,19 @@
         <v>804</v>
       </c>
       <c r="F278">
+        <v>228</v>
+      </c>
+      <c r="G278">
         <v>10</v>
       </c>
-      <c r="G278" t="s">
+      <c r="H278" t="s">
         <v>834</v>
       </c>
-      <c r="H278" t="s">
+      <c r="I278" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>278</v>
       </c>
@@ -12582,22 +12603,25 @@
         <v>417</v>
       </c>
       <c r="F279">
+        <v>100</v>
+      </c>
+      <c r="G279">
         <v>10</v>
       </c>
-      <c r="G279" t="s">
+      <c r="H279" t="s">
         <v>827</v>
       </c>
-      <c r="H279" t="s">
+      <c r="I279" t="s">
         <v>829</v>
       </c>
-      <c r="I279" t="s">
+      <c r="J279" t="s">
         <v>31</v>
       </c>
-      <c r="J279" t="s">
+      <c r="K279" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>279</v>
       </c>
@@ -12614,22 +12638,25 @@
         <v>2029</v>
       </c>
       <c r="F280">
+        <v>497</v>
+      </c>
+      <c r="G280">
         <v>10</v>
       </c>
-      <c r="G280" t="s">
+      <c r="H280" t="s">
         <v>838</v>
       </c>
-      <c r="H280" t="s">
+      <c r="I280" t="s">
         <v>41</v>
       </c>
-      <c r="I280" t="s">
+      <c r="J280" t="s">
         <v>143</v>
       </c>
-      <c r="J280" t="s">
+      <c r="K280" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>280</v>
       </c>
@@ -12646,19 +12673,22 @@
         <v>699</v>
       </c>
       <c r="F281">
+        <v>22</v>
+      </c>
+      <c r="G281">
         <v>10</v>
       </c>
-      <c r="G281" t="s">
+      <c r="H281" t="s">
         <v>840</v>
       </c>
-      <c r="H281" t="s">
+      <c r="I281" t="s">
         <v>190</v>
       </c>
-      <c r="I281" t="s">
+      <c r="J281" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>281</v>
       </c>
@@ -12675,19 +12705,22 @@
         <v>721</v>
       </c>
       <c r="F282">
+        <v>28</v>
+      </c>
+      <c r="G282">
         <v>10</v>
       </c>
-      <c r="G282" t="s">
+      <c r="H282" t="s">
         <v>31</v>
       </c>
-      <c r="H282" t="s">
+      <c r="I282" t="s">
         <v>589</v>
       </c>
-      <c r="I282" t="s">
+      <c r="J282" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>282</v>
       </c>
@@ -12704,25 +12737,28 @@
         <v>5709</v>
       </c>
       <c r="F283">
+        <v>468</v>
+      </c>
+      <c r="G283">
         <v>10</v>
       </c>
-      <c r="G283" t="s">
+      <c r="H283" t="s">
         <v>41</v>
       </c>
-      <c r="H283" t="s">
+      <c r="I283" t="s">
         <v>143</v>
       </c>
-      <c r="I283" t="s">
+      <c r="J283" t="s">
         <v>557</v>
       </c>
-      <c r="J283" t="s">
+      <c r="K283" t="s">
         <v>844</v>
       </c>
-      <c r="K283" t="s">
+      <c r="L283" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>283</v>
       </c>
@@ -12739,22 +12775,25 @@
         <v>2568</v>
       </c>
       <c r="F284">
+        <v>1480</v>
+      </c>
+      <c r="G284">
         <v>10</v>
       </c>
-      <c r="G284" t="s">
+      <c r="H284" t="s">
         <v>589</v>
       </c>
-      <c r="H284" t="s">
+      <c r="I284" t="s">
         <v>151</v>
       </c>
-      <c r="I284" t="s">
+      <c r="J284" t="s">
         <v>844</v>
       </c>
-      <c r="J284" t="s">
+      <c r="K284" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>284</v>
       </c>
@@ -12771,22 +12810,25 @@
         <v>5913</v>
       </c>
       <c r="F285">
+        <v>1954</v>
+      </c>
+      <c r="G285">
         <v>10</v>
       </c>
-      <c r="G285" t="s">
+      <c r="H285" t="s">
         <v>41</v>
       </c>
-      <c r="H285" t="s">
+      <c r="I285" t="s">
         <v>849</v>
       </c>
-      <c r="I285" t="s">
+      <c r="J285" t="s">
         <v>850</v>
       </c>
-      <c r="J285" t="s">
+      <c r="K285" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>285</v>
       </c>
@@ -12803,16 +12845,19 @@
         <v>863</v>
       </c>
       <c r="F286">
+        <v>5736</v>
+      </c>
+      <c r="G286">
         <v>10</v>
       </c>
-      <c r="G286" t="s">
+      <c r="H286" t="s">
         <v>686</v>
       </c>
-      <c r="H286" t="s">
+      <c r="I286" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>286</v>
       </c>
@@ -12829,22 +12874,25 @@
         <v>167</v>
       </c>
       <c r="F287">
+        <v>14</v>
+      </c>
+      <c r="G287">
         <v>10</v>
       </c>
-      <c r="G287" t="s">
+      <c r="H287" t="s">
         <v>420</v>
       </c>
-      <c r="H287" t="s">
+      <c r="I287" t="s">
         <v>65</v>
       </c>
-      <c r="I287" t="s">
+      <c r="J287" t="s">
         <v>854</v>
       </c>
-      <c r="J287" t="s">
+      <c r="K287" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>287</v>
       </c>
@@ -12863,17 +12911,20 @@
       <c r="F288">
         <v>10</v>
       </c>
-      <c r="G288" t="s">
+      <c r="G288">
+        <v>10</v>
+      </c>
+      <c r="H288" t="s">
         <v>856</v>
       </c>
-      <c r="H288" t="s">
+      <c r="I288" t="s">
         <v>143</v>
       </c>
-      <c r="I288" t="s">
+      <c r="J288" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>288</v>
       </c>
@@ -12890,19 +12941,22 @@
         <v>465</v>
       </c>
       <c r="F289">
+        <v>91</v>
+      </c>
+      <c r="G289">
         <v>10</v>
       </c>
-      <c r="G289" t="s">
+      <c r="H289" t="s">
         <v>33</v>
       </c>
-      <c r="H289" t="s">
+      <c r="I289" t="s">
         <v>617</v>
       </c>
-      <c r="I289" t="s">
+      <c r="J289" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>289</v>
       </c>
@@ -12919,22 +12973,25 @@
         <v>195</v>
       </c>
       <c r="F290">
+        <v>50</v>
+      </c>
+      <c r="G290">
         <v>10</v>
       </c>
-      <c r="G290" t="s">
+      <c r="H290" t="s">
         <v>859</v>
       </c>
-      <c r="H290" t="s">
+      <c r="I290" t="s">
         <v>860</v>
       </c>
-      <c r="I290" t="s">
+      <c r="J290" t="s">
         <v>861</v>
       </c>
-      <c r="J290" t="s">
+      <c r="K290" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>290</v>
       </c>
@@ -12951,19 +13008,22 @@
         <v>1627</v>
       </c>
       <c r="F291">
+        <v>268</v>
+      </c>
+      <c r="G291">
         <v>10</v>
       </c>
-      <c r="G291" t="s">
+      <c r="H291" t="s">
         <v>31</v>
       </c>
-      <c r="H291" t="s">
+      <c r="I291" t="s">
         <v>589</v>
       </c>
-      <c r="I291" t="s">
+      <c r="J291" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>291</v>
       </c>
@@ -12980,19 +13040,22 @@
         <v>3332</v>
       </c>
       <c r="F292">
+        <v>154</v>
+      </c>
+      <c r="G292">
         <v>10</v>
       </c>
-      <c r="G292" t="s">
+      <c r="H292" t="s">
         <v>180</v>
       </c>
-      <c r="H292" t="s">
+      <c r="I292" t="s">
         <v>143</v>
       </c>
-      <c r="I292" t="s">
+      <c r="J292" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>292</v>
       </c>
@@ -13009,22 +13072,25 @@
         <v>2622</v>
       </c>
       <c r="F293">
+        <v>858</v>
+      </c>
+      <c r="G293">
         <v>10</v>
       </c>
-      <c r="G293" t="s">
+      <c r="H293" t="s">
         <v>831</v>
       </c>
-      <c r="H293" t="s">
+      <c r="I293" t="s">
         <v>557</v>
       </c>
-      <c r="I293" t="s">
+      <c r="J293" t="s">
         <v>827</v>
       </c>
-      <c r="J293" t="s">
+      <c r="K293" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>293</v>
       </c>
@@ -13041,25 +13107,28 @@
         <v>1284</v>
       </c>
       <c r="F294">
+        <v>658</v>
+      </c>
+      <c r="G294">
         <v>10</v>
       </c>
-      <c r="G294" t="s">
+      <c r="H294" t="s">
         <v>41</v>
       </c>
-      <c r="H294" t="s">
+      <c r="I294" t="s">
         <v>827</v>
       </c>
-      <c r="I294" t="s">
+      <c r="J294" t="s">
         <v>143</v>
       </c>
-      <c r="J294" t="s">
+      <c r="K294" t="s">
         <v>180</v>
       </c>
-      <c r="K294" t="s">
+      <c r="L294" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>294</v>
       </c>
@@ -13076,16 +13145,19 @@
         <v>888</v>
       </c>
       <c r="F295">
+        <v>304</v>
+      </c>
+      <c r="G295">
         <v>10</v>
       </c>
-      <c r="G295" t="s">
+      <c r="H295" t="s">
         <v>31</v>
       </c>
-      <c r="H295" t="s">
+      <c r="I295" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>295</v>
       </c>
@@ -13102,16 +13174,19 @@
         <v>630</v>
       </c>
       <c r="F296">
+        <v>203</v>
+      </c>
+      <c r="G296">
         <v>10</v>
       </c>
-      <c r="G296" t="s">
+      <c r="H296" t="s">
         <v>844</v>
       </c>
-      <c r="H296" t="s">
+      <c r="I296" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>296</v>
       </c>
@@ -13128,13 +13203,16 @@
         <v>106</v>
       </c>
       <c r="F297">
+        <v>27</v>
+      </c>
+      <c r="G297">
         <v>10</v>
       </c>
-      <c r="G297" t="s">
+      <c r="H297" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>297</v>
       </c>
@@ -13151,16 +13229,19 @@
         <v>236</v>
       </c>
       <c r="F298">
+        <v>113</v>
+      </c>
+      <c r="G298">
         <v>10</v>
       </c>
-      <c r="G298" t="s">
+      <c r="H298" t="s">
         <v>365</v>
       </c>
-      <c r="H298" t="s">
+      <c r="I298" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>298</v>
       </c>
@@ -13177,22 +13258,25 @@
         <v>424</v>
       </c>
       <c r="F299">
+        <v>39</v>
+      </c>
+      <c r="G299">
         <v>10</v>
       </c>
-      <c r="G299" t="s">
+      <c r="H299" t="s">
         <v>642</v>
       </c>
-      <c r="H299" t="s">
+      <c r="I299" t="s">
         <v>874</v>
       </c>
-      <c r="I299" t="s">
+      <c r="J299" t="s">
         <v>831</v>
       </c>
-      <c r="J299" t="s">
+      <c r="K299" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>299</v>
       </c>
@@ -13209,19 +13293,22 @@
         <v>246</v>
       </c>
       <c r="F300">
+        <v>92</v>
+      </c>
+      <c r="G300">
         <v>10</v>
       </c>
-      <c r="G300" t="s">
+      <c r="H300" t="s">
         <v>41</v>
       </c>
-      <c r="H300" t="s">
+      <c r="I300" t="s">
         <v>143</v>
       </c>
-      <c r="I300" t="s">
+      <c r="J300" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>300</v>
       </c>
@@ -13238,15 +13325,18 @@
         <v>44</v>
       </c>
       <c r="F301">
+        <v>11</v>
+      </c>
+      <c r="G301">
         <v>10</v>
       </c>
-      <c r="G301" t="s">
+      <c r="H301" t="s">
         <v>168</v>
       </c>
-      <c r="H301" t="s">
+      <c r="I301" t="s">
         <v>877</v>
       </c>
-      <c r="I301" t="s">
+      <c r="J301" t="s">
         <v>878</v>
       </c>
     </row>
@@ -13333,13 +13423,13 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="27.69921875" customWidth="1"/>
-    <col min="5" max="5" width="26.546875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13356,7 +13446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13373,7 +13463,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13390,7 +13480,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13407,7 +13497,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13424,7 +13514,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13441,7 +13531,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13458,7 +13548,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13475,7 +13565,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13492,7 +13582,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13509,7 +13599,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>

--- a/data/DataOfBGMAndVedio.xlsx
+++ b/data/DataOfBGMAndVedio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echo\Desktop\数据科学基础\大作业\BGM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0447955F-60A7-4603-9676-A693567E6821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE7C14A-E9E5-4A61-8BD8-53239A54E29A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A80C75DB-A855-4043-8691-E31DA03F0C30}"/>
   </bookViews>
@@ -3680,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC52F356-94DD-43B9-9C07-E00B3F2F58A1}">
   <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F302" sqref="F302"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="O287" sqref="O287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
